--- a/Myexcel.xlsx
+++ b/Myexcel.xlsx
@@ -448,7 +448,7 @@
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E19" sqref="E19:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
